--- a/data/trans_bre/IP1002-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/IP1002-Estudios-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -768,32 +768,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-6,45; 2,48</t>
+          <t>-6,38; 2,54</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-5,01; 3,12</t>
+          <t>-4,71; 3,61</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-3,96; 1,92</t>
+          <t>-3,1; 1,94</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-5,24; 1,59</t>
+          <t>-6,75; 1,49</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-90,47; 184,67</t>
+          <t>-100,0; 232,11</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-95,04; 356,32</t>
+          <t>-90,5; 343,03</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,66; 1,58</t>
+          <t>-0,56; 1,68</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,38; 0,52</t>
+          <t>-2,46; 0,55</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,37; 0,96</t>
+          <t>-1,48; 0,95</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,3; 1,39</t>
+          <t>-1,29; 1,43</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-62,71; 325,44</t>
+          <t>-51,61; 419,47</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-73,34; 35,4</t>
+          <t>-73,56; 44,12</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-71,61; 131,61</t>
+          <t>-72,24; 146,92</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-67,89; 240,33</t>
+          <t>-67,81; 221,73</t>
         </is>
       </c>
     </row>
@@ -968,22 +968,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-1,34; 1,74</t>
+          <t>-1,16; 1,86</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-3,42; 0,72</t>
+          <t>-3,6; 0,69</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-2,44; 1,28</t>
+          <t>-2,49; 1,05</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-2,27; 2,45</t>
+          <t>-2,21; 2,35</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -998,12 +998,12 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 521,67</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; —</t>
+          <t>-89,52; —</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,74; 1,26</t>
+          <t>-0,76; 1,25</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,11; 0,25</t>
+          <t>-2,07; 0,24</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,19; 0,65</t>
+          <t>-1,18; 0,63</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,04; 1,14</t>
+          <t>-1,03; 1,1</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-45,44; 179,97</t>
+          <t>-45,66; 161,67</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-67,94; 17,31</t>
+          <t>-69,15; 16,92</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-65,87; 79,39</t>
+          <t>-62,9; 79,19</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-56,58; 153,96</t>
+          <t>-55,56; 153,94</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/IP1002-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/IP1002-Estudios-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Primarios</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-1,15</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-0,49</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-0,05</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-0,68</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-29,49%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-15,68%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-5,14%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-48,59%</t>
         </is>
       </c>
     </row>
@@ -668,27 +668,27 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,03; 2,53</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,03; 3,4</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,05; 2,8</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,55; 1,51</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-90,02; 198,51</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Primarios</t>
+          <t>Secundarios</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-1,15</t>
+          <t>0,48</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-0,49</t>
+          <t>-0,9</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-0,05</t>
+          <t>-0,23</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-0,64</t>
+          <t>-0,06</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-29,49%</t>
+          <t>52,5%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-15,68%</t>
+          <t>-36,17%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-5,14%</t>
+          <t>-16,29%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-45,63%</t>
+          <t>-4,34%</t>
         </is>
       </c>
     </row>
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-6,38; 2,54</t>
+          <t>-0,71; 1,62</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-4,71; 3,61</t>
+          <t>-2,55; 0,55</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-3,1; 1,94</t>
+          <t>-1,46; 0,98</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-6,75; 1,49</t>
+          <t>-1,53; 1,22</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 232,11</t>
+          <t>-53,12; 357,63</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-90,5; 343,03</t>
+          <t>-76,42; 36,28</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-73,0; 137,41</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-69,48; 170,44</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Secundarios</t>
+          <t>Universitarios</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,48</t>
+          <t>0,25</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-0,9</t>
+          <t>-1,04</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-0,23</t>
+          <t>-0,43</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,07</t>
+          <t>0,04</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>52,5%</t>
+          <t>48,78%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-36,17%</t>
+          <t>-58,18%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-16,29%</t>
+          <t>-30,73%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>5,81%</t>
+          <t>2,62%</t>
         </is>
       </c>
     </row>
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,56; 1,68</t>
+          <t>-1,44; 1,58</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,46; 0,55</t>
+          <t>-3,32; 0,72</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,48; 0,95</t>
+          <t>-2,42; 1,17</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,29; 1,43</t>
+          <t>-2,62; 2,28</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-51,61; 419,47</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-73,56; 44,12</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-72,24; 146,92</t>
+          <t>-100,0; 328,29</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-67,81; 221,73</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Universitarios</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,25</t>
+          <t>0,23</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-1,04</t>
+          <t>-0,87</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-0,43</t>
+          <t>-0,26</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,08</t>
+          <t>-0,09</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>48,78%</t>
+          <t>19,24%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-58,18%</t>
+          <t>-36,29%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-30,73%</t>
+          <t>-19,05%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>5,41%</t>
+          <t>-6,44%</t>
         </is>
       </c>
     </row>
@@ -968,156 +968,55 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-1,16; 1,86</t>
+          <t>-0,82; 1,11</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-3,6; 0,69</t>
+          <t>-2,14; 0,28</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-2,49; 1,05</t>
+          <t>-1,22; 0,58</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-2,21; 2,35</t>
+          <t>-1,35; 1,04</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-51,49; 148,97</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-66,67; 19,61</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-68,12; 70,29</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-89,52; —</t>
+          <t>-63,5; 138,43</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B12" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>0,23</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>-0,87</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-0,26</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>0,01</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>19,36%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>-36,24%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>-19,05%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>1,12%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-0,76; 1,25</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-2,07; 0,24</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-1,18; 0,63</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-1,03; 1,1</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>-45,66; 161,67</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>-69,15; 16,92</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-62,9; 79,19</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-55,56; 153,94</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A12" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="7">
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:F1"/>
